--- a/src/data_automation/data_output.xlsx
+++ b/src/data_automation/data_output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-University\00-Github\Proprioception_stimulation\src\data_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011D8061-111A-4671-8A9F-AE7E1082696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AE1945-A91C-4AF3-A853-939C19265848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mana stanga test 1" sheetId="2" r:id="rId1"/>
@@ -21,15 +21,16 @@
     <sheet name="Mana dreapta test 1" sheetId="6" r:id="rId6"/>
     <sheet name="Mana dreapta test 2" sheetId="7" r:id="rId7"/>
     <sheet name="Mana dreapta test 3" sheetId="8" r:id="rId8"/>
-    <sheet name="Mana dreapta test 4" sheetId="9" r:id="rId9"/>
-    <sheet name="Mana dreapta test 5" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
+    <sheet name="Mana dreapta test 4" sheetId="9" r:id="rId10"/>
+    <sheet name="Mana dreapta test 5" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="802">
   <si>
     <t>Pozitie</t>
   </si>
@@ -2441,7 +2442,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2449,16 +2450,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2466,17 +2481,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="45">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2609,6 +2661,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2679,6 +2751,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2694,16 +2776,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3379,8 +3451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5021,16 +5093,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D95 D100:D1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E95 E100:E110 E580:E1048576">
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5048,6 +5120,1695 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>651</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>653</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>654</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>655</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>656</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>657</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>658</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>659</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>660</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>661</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>663</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>664</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>80</v>
+      </c>
+      <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>665</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>666</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>667</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>80</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>668</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>80</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>669</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>80</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>670</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>671</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>80</v>
+      </c>
+      <c r="C32">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>672</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>80</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>673</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>80</v>
+      </c>
+      <c r="C34">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>674</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>80</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>675</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>80</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>676</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>80</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>677</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>80</v>
+      </c>
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>80</v>
+      </c>
+      <c r="C39">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>678</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>80</v>
+      </c>
+      <c r="C40">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>80</v>
+      </c>
+      <c r="C41">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>679</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>80</v>
+      </c>
+      <c r="C42">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>680</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>80</v>
+      </c>
+      <c r="C43">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>80</v>
+      </c>
+      <c r="C44">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>681</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>80</v>
+      </c>
+      <c r="C45">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>682</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>80</v>
+      </c>
+      <c r="C46">
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>683</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>80</v>
+      </c>
+      <c r="C47">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>406</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>80</v>
+      </c>
+      <c r="C48">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>80</v>
+      </c>
+      <c r="C49">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>684</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>80</v>
+      </c>
+      <c r="C50">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>685</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>80</v>
+      </c>
+      <c r="C51">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s">
+        <v>686</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>80</v>
+      </c>
+      <c r="C52">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>687</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>80</v>
+      </c>
+      <c r="C53">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s">
+        <v>688</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s">
+        <v>689</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s">
+        <v>690</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>80</v>
+      </c>
+      <c r="C56">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>691</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s">
+        <v>692</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>80</v>
+      </c>
+      <c r="C58">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s">
+        <v>693</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>80</v>
+      </c>
+      <c r="C59">
+        <v>35</v>
+      </c>
+      <c r="D59" t="s">
+        <v>694</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>80</v>
+      </c>
+      <c r="C60">
+        <v>35</v>
+      </c>
+      <c r="D60" t="s">
+        <v>695</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>80</v>
+      </c>
+      <c r="C61">
+        <v>35</v>
+      </c>
+      <c r="D61" t="s">
+        <v>696</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>80</v>
+      </c>
+      <c r="C62">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>697</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>80</v>
+      </c>
+      <c r="C63">
+        <v>35</v>
+      </c>
+      <c r="D63" t="s">
+        <v>698</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>80</v>
+      </c>
+      <c r="C64">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>699</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>80</v>
+      </c>
+      <c r="C65">
+        <v>35</v>
+      </c>
+      <c r="D65" t="s">
+        <v>700</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>80</v>
+      </c>
+      <c r="C66">
+        <v>35</v>
+      </c>
+      <c r="D66" t="s">
+        <v>701</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>80</v>
+      </c>
+      <c r="C67">
+        <v>35</v>
+      </c>
+      <c r="D67" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>80</v>
+      </c>
+      <c r="C68">
+        <v>35</v>
+      </c>
+      <c r="D68" t="s">
+        <v>702</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>80</v>
+      </c>
+      <c r="C69">
+        <v>35</v>
+      </c>
+      <c r="D69" t="s">
+        <v>703</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>80</v>
+      </c>
+      <c r="C70">
+        <v>35</v>
+      </c>
+      <c r="D70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>80</v>
+      </c>
+      <c r="C71">
+        <v>35</v>
+      </c>
+      <c r="D71" t="s">
+        <v>704</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>80</v>
+      </c>
+      <c r="C72">
+        <v>35</v>
+      </c>
+      <c r="D72" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>35</v>
+      </c>
+      <c r="D73" t="s">
+        <v>705</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>80</v>
+      </c>
+      <c r="C74">
+        <v>35</v>
+      </c>
+      <c r="D74" t="s">
+        <v>706</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>80</v>
+      </c>
+      <c r="C75">
+        <v>35</v>
+      </c>
+      <c r="D75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>35</v>
+      </c>
+      <c r="D76" t="s">
+        <v>707</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <v>35</v>
+      </c>
+      <c r="D77" t="s">
+        <v>376</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>80</v>
+      </c>
+      <c r="C78">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>708</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>80</v>
+      </c>
+      <c r="C79">
+        <v>35</v>
+      </c>
+      <c r="D79" t="s">
+        <v>709</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>80</v>
+      </c>
+      <c r="C80">
+        <v>35</v>
+      </c>
+      <c r="D80" t="s">
+        <v>710</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>35</v>
+      </c>
+      <c r="D81" t="s">
+        <v>711</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <v>35</v>
+      </c>
+      <c r="D82" t="s">
+        <v>712</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>80</v>
+      </c>
+      <c r="C83">
+        <v>35</v>
+      </c>
+      <c r="D83" t="s">
+        <v>713</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>80</v>
+      </c>
+      <c r="C84">
+        <v>35</v>
+      </c>
+      <c r="D84" t="s">
+        <v>714</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>80</v>
+      </c>
+      <c r="C85">
+        <v>35</v>
+      </c>
+      <c r="D85" t="s">
+        <v>715</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>80</v>
+      </c>
+      <c r="C86">
+        <v>35</v>
+      </c>
+      <c r="D86" t="s">
+        <v>716</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>80</v>
+      </c>
+      <c r="C87">
+        <v>35</v>
+      </c>
+      <c r="D87" t="s">
+        <v>717</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>80</v>
+      </c>
+      <c r="C88">
+        <v>35</v>
+      </c>
+      <c r="D88" t="s">
+        <v>718</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>80</v>
+      </c>
+      <c r="C89">
+        <v>35</v>
+      </c>
+      <c r="D89" t="s">
+        <v>719</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>80</v>
+      </c>
+      <c r="C90">
+        <v>35</v>
+      </c>
+      <c r="D90" t="s">
+        <v>543</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>80</v>
+      </c>
+      <c r="C91">
+        <v>35</v>
+      </c>
+      <c r="D91" t="s">
+        <v>720</v>
+      </c>
+      <c r="E91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>80</v>
+      </c>
+      <c r="C92">
+        <v>35</v>
+      </c>
+      <c r="D92" t="s">
+        <v>721</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>80</v>
+      </c>
+      <c r="C93">
+        <v>35</v>
+      </c>
+      <c r="D93" t="s">
+        <v>722</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>80</v>
+      </c>
+      <c r="C94">
+        <v>35</v>
+      </c>
+      <c r="D94" t="s">
+        <v>723</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>80</v>
+      </c>
+      <c r="C95">
+        <v>35</v>
+      </c>
+      <c r="D95" t="s">
+        <v>724</v>
+      </c>
+      <c r="E95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>80</v>
+      </c>
+      <c r="C96">
+        <v>35</v>
+      </c>
+      <c r="D96" t="s">
+        <v>725</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:D96 D102:D1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E96 E102:E110 E580:E1048576">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>$J$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>$I$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E96 E102:E110 E580:E1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
+      <formula1>$H$1:$J$1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J96"/>
   <sheetViews>
@@ -6741,7 +8502,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="E29" activeCellId="3" sqref="A18:E18 A20:E20 A35:E35 A29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8382,16 +10143,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D95 D102:D1048576">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E95 E102:E110 E580:E1048576">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9986,16 +11747,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D91 D102:D1048576">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E91 E102:E110 E580:E1048576">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11658,16 +13419,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D95 D102:D1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E95 E102:E110 E580:E1048576">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11688,8 +13449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13347,16 +15108,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D102:D1048576 D1:D96">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E110 E580:E1048576">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15240,13 +17001,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E112 E582:E1048576">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16875,16 +18636,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D93 D102:D1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E93 E102:E110 E580:E1048576">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16906,7 +18667,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+      <selection activeCell="H25" sqref="H25:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18530,16 +20291,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D94 D102:D1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E94 E102:E110 E580:E1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18557,39 +20318,32 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDE3455-E2AE-40D1-B0F6-343C2A71FB66}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
@@ -18603,1644 +20357,218 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>80</v>
-      </c>
-      <c r="C2">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>650</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>80</v>
+      </c>
+      <c r="C2" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>80</v>
-      </c>
-      <c r="C3">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>80</v>
+      </c>
+      <c r="C3" s="5">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-      <c r="C4">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>651</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>80</v>
+      </c>
+      <c r="C4" s="5">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>80</v>
-      </c>
-      <c r="C6">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>652</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>80</v>
+      </c>
+      <c r="C6" s="5">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>80</v>
-      </c>
-      <c r="C7">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>653</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>80</v>
+      </c>
+      <c r="C7" s="5">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>80</v>
-      </c>
-      <c r="C8">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>80</v>
+      </c>
+      <c r="C8" s="5">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>80</v>
-      </c>
-      <c r="C9">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>654</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>80</v>
+      </c>
+      <c r="C9" s="5">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>80</v>
-      </c>
-      <c r="C10">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>655</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>80</v>
+      </c>
+      <c r="C10" s="5">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>80</v>
+      </c>
+      <c r="C11" s="5">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>80</v>
-      </c>
-      <c r="C11">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>80</v>
-      </c>
-      <c r="C12">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>656</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>80</v>
-      </c>
-      <c r="C13">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>657</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>80</v>
-      </c>
-      <c r="C14">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>658</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>80</v>
-      </c>
-      <c r="C15">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>659</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>80</v>
-      </c>
-      <c r="C16">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>275</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>80</v>
-      </c>
-      <c r="C17">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>660</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>80</v>
-      </c>
-      <c r="C18">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>661</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>80</v>
-      </c>
-      <c r="C19">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>80</v>
-      </c>
-      <c r="C20">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>663</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>80</v>
-      </c>
-      <c r="C21">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>664</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>80</v>
-      </c>
-      <c r="C22">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>665</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>80</v>
-      </c>
-      <c r="C23">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>666</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>80</v>
-      </c>
-      <c r="C24">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>667</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>80</v>
-      </c>
-      <c r="C25">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>668</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>80</v>
-      </c>
-      <c r="C26">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>80</v>
-      </c>
-      <c r="C27">
-        <v>35</v>
-      </c>
-      <c r="D27" t="s">
-        <v>669</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>80</v>
-      </c>
-      <c r="C28">
-        <v>35</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>80</v>
-      </c>
-      <c r="C29">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>80</v>
-      </c>
-      <c r="C30">
-        <v>35</v>
-      </c>
-      <c r="D30" t="s">
-        <v>670</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>80</v>
-      </c>
-      <c r="C31">
-        <v>35</v>
-      </c>
-      <c r="D31" t="s">
-        <v>671</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>80</v>
-      </c>
-      <c r="C32">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>672</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>80</v>
-      </c>
-      <c r="C33">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>673</v>
-      </c>
-      <c r="E33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>80</v>
-      </c>
-      <c r="C34">
-        <v>35</v>
-      </c>
-      <c r="D34" t="s">
-        <v>674</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>80</v>
-      </c>
-      <c r="C35">
-        <v>35</v>
-      </c>
-      <c r="D35" t="s">
-        <v>675</v>
-      </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>80</v>
-      </c>
-      <c r="C36">
-        <v>35</v>
-      </c>
-      <c r="D36" t="s">
-        <v>676</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>80</v>
-      </c>
-      <c r="C37">
-        <v>35</v>
-      </c>
-      <c r="D37" t="s">
-        <v>677</v>
-      </c>
-      <c r="E37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>80</v>
-      </c>
-      <c r="C38">
-        <v>35</v>
-      </c>
-      <c r="D38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>80</v>
-      </c>
-      <c r="C39">
-        <v>35</v>
-      </c>
-      <c r="D39" t="s">
-        <v>678</v>
-      </c>
-      <c r="E39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>80</v>
-      </c>
-      <c r="C40">
-        <v>35</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>80</v>
-      </c>
-      <c r="C41">
-        <v>35</v>
-      </c>
-      <c r="D41" t="s">
-        <v>679</v>
-      </c>
-      <c r="E41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>80</v>
-      </c>
-      <c r="C42">
-        <v>35</v>
-      </c>
-      <c r="D42" t="s">
-        <v>680</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>80</v>
-      </c>
-      <c r="C43">
-        <v>35</v>
-      </c>
-      <c r="D43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>80</v>
-      </c>
-      <c r="C44">
-        <v>35</v>
-      </c>
-      <c r="D44" t="s">
-        <v>681</v>
-      </c>
-      <c r="E44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>80</v>
-      </c>
-      <c r="C45">
-        <v>35</v>
-      </c>
-      <c r="D45" t="s">
-        <v>682</v>
-      </c>
-      <c r="E45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>80</v>
-      </c>
-      <c r="C46">
-        <v>35</v>
-      </c>
-      <c r="D46" t="s">
-        <v>683</v>
-      </c>
-      <c r="E46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <v>80</v>
-      </c>
-      <c r="C47">
-        <v>35</v>
-      </c>
-      <c r="D47" t="s">
-        <v>406</v>
-      </c>
-      <c r="E47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <v>80</v>
-      </c>
-      <c r="C48">
-        <v>35</v>
-      </c>
-      <c r="D48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49">
-        <v>80</v>
-      </c>
-      <c r="C49">
-        <v>35</v>
-      </c>
-      <c r="D49" t="s">
-        <v>684</v>
-      </c>
-      <c r="E49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>80</v>
-      </c>
-      <c r="C50">
-        <v>35</v>
-      </c>
-      <c r="D50" t="s">
-        <v>685</v>
-      </c>
-      <c r="E50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51">
-        <v>80</v>
-      </c>
-      <c r="C51">
-        <v>35</v>
-      </c>
-      <c r="D51" t="s">
-        <v>686</v>
-      </c>
-      <c r="E51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52">
-        <v>80</v>
-      </c>
-      <c r="C52">
-        <v>35</v>
-      </c>
-      <c r="D52" t="s">
-        <v>687</v>
-      </c>
-      <c r="E52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53">
-        <v>80</v>
-      </c>
-      <c r="C53">
-        <v>35</v>
-      </c>
-      <c r="D53" t="s">
-        <v>688</v>
-      </c>
-      <c r="E53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54">
-        <v>80</v>
-      </c>
-      <c r="C54">
-        <v>35</v>
-      </c>
-      <c r="D54" t="s">
-        <v>689</v>
-      </c>
-      <c r="E54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>80</v>
-      </c>
-      <c r="C55">
-        <v>35</v>
-      </c>
-      <c r="D55" t="s">
-        <v>690</v>
-      </c>
-      <c r="E55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56">
-        <v>80</v>
-      </c>
-      <c r="C56">
-        <v>35</v>
-      </c>
-      <c r="D56" t="s">
-        <v>691</v>
-      </c>
-      <c r="E56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57">
-        <v>80</v>
-      </c>
-      <c r="C57">
-        <v>35</v>
-      </c>
-      <c r="D57" t="s">
-        <v>692</v>
-      </c>
-      <c r="E57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58">
-        <v>80</v>
-      </c>
-      <c r="C58">
-        <v>35</v>
-      </c>
-      <c r="D58" t="s">
-        <v>693</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59">
-        <v>80</v>
-      </c>
-      <c r="C59">
-        <v>35</v>
-      </c>
-      <c r="D59" t="s">
-        <v>694</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60">
-        <v>80</v>
-      </c>
-      <c r="C60">
-        <v>35</v>
-      </c>
-      <c r="D60" t="s">
-        <v>695</v>
-      </c>
-      <c r="E60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61">
-        <v>80</v>
-      </c>
-      <c r="C61">
-        <v>35</v>
-      </c>
-      <c r="D61" t="s">
-        <v>696</v>
-      </c>
-      <c r="E61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62">
-        <v>80</v>
-      </c>
-      <c r="C62">
-        <v>35</v>
-      </c>
-      <c r="D62" t="s">
-        <v>697</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63">
-        <v>80</v>
-      </c>
-      <c r="C63">
-        <v>35</v>
-      </c>
-      <c r="D63" t="s">
-        <v>698</v>
-      </c>
-      <c r="E63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64">
-        <v>80</v>
-      </c>
-      <c r="C64">
-        <v>35</v>
-      </c>
-      <c r="D64" t="s">
-        <v>699</v>
-      </c>
-      <c r="E64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65">
-        <v>80</v>
-      </c>
-      <c r="C65">
-        <v>35</v>
-      </c>
-      <c r="D65" t="s">
-        <v>700</v>
-      </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66">
-        <v>80</v>
-      </c>
-      <c r="C66">
-        <v>35</v>
-      </c>
-      <c r="D66" t="s">
-        <v>701</v>
-      </c>
-      <c r="E66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67">
-        <v>80</v>
-      </c>
-      <c r="C67">
-        <v>35</v>
-      </c>
-      <c r="D67" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68">
-        <v>80</v>
-      </c>
-      <c r="C68">
-        <v>35</v>
-      </c>
-      <c r="D68" t="s">
-        <v>702</v>
-      </c>
-      <c r="E68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69">
-        <v>80</v>
-      </c>
-      <c r="C69">
-        <v>35</v>
-      </c>
-      <c r="D69" t="s">
-        <v>703</v>
-      </c>
-      <c r="E69" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70">
-        <v>80</v>
-      </c>
-      <c r="C70">
-        <v>35</v>
-      </c>
-      <c r="D70" t="s">
-        <v>222</v>
-      </c>
-      <c r="E70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71">
-        <v>80</v>
-      </c>
-      <c r="C71">
-        <v>35</v>
-      </c>
-      <c r="D71" t="s">
-        <v>704</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72">
-        <v>80</v>
-      </c>
-      <c r="C72">
-        <v>35</v>
-      </c>
-      <c r="D72" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73">
-        <v>80</v>
-      </c>
-      <c r="C73">
-        <v>35</v>
-      </c>
-      <c r="D73" t="s">
-        <v>705</v>
-      </c>
-      <c r="E73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74">
-        <v>80</v>
-      </c>
-      <c r="C74">
-        <v>35</v>
-      </c>
-      <c r="D74" t="s">
-        <v>706</v>
-      </c>
-      <c r="E74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75">
-        <v>80</v>
-      </c>
-      <c r="C75">
-        <v>35</v>
-      </c>
-      <c r="D75" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76">
-        <v>80</v>
-      </c>
-      <c r="C76">
-        <v>35</v>
-      </c>
-      <c r="D76" t="s">
-        <v>707</v>
-      </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77">
-        <v>80</v>
-      </c>
-      <c r="C77">
-        <v>35</v>
-      </c>
-      <c r="D77" t="s">
-        <v>376</v>
-      </c>
-      <c r="E77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78">
-        <v>80</v>
-      </c>
-      <c r="C78">
-        <v>35</v>
-      </c>
-      <c r="D78" t="s">
-        <v>708</v>
-      </c>
-      <c r="E78" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79">
-        <v>80</v>
-      </c>
-      <c r="C79">
-        <v>35</v>
-      </c>
-      <c r="D79" t="s">
-        <v>709</v>
-      </c>
-      <c r="E79" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80">
-        <v>80</v>
-      </c>
-      <c r="C80">
-        <v>35</v>
-      </c>
-      <c r="D80" t="s">
-        <v>710</v>
-      </c>
-      <c r="E80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="B81">
-        <v>80</v>
-      </c>
-      <c r="C81">
-        <v>35</v>
-      </c>
-      <c r="D81" t="s">
-        <v>711</v>
-      </c>
-      <c r="E81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>1</v>
-      </c>
-      <c r="B82">
-        <v>80</v>
-      </c>
-      <c r="C82">
-        <v>35</v>
-      </c>
-      <c r="D82" t="s">
-        <v>712</v>
-      </c>
-      <c r="E82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83">
-        <v>80</v>
-      </c>
-      <c r="C83">
-        <v>35</v>
-      </c>
-      <c r="D83" t="s">
-        <v>713</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="B84">
-        <v>80</v>
-      </c>
-      <c r="C84">
-        <v>35</v>
-      </c>
-      <c r="D84" t="s">
-        <v>714</v>
-      </c>
-      <c r="E84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>1</v>
-      </c>
-      <c r="B85">
-        <v>80</v>
-      </c>
-      <c r="C85">
-        <v>35</v>
-      </c>
-      <c r="D85" t="s">
-        <v>715</v>
-      </c>
-      <c r="E85" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86">
-        <v>80</v>
-      </c>
-      <c r="C86">
-        <v>35</v>
-      </c>
-      <c r="D86" t="s">
-        <v>716</v>
-      </c>
-      <c r="E86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87">
-        <v>80</v>
-      </c>
-      <c r="C87">
-        <v>35</v>
-      </c>
-      <c r="D87" t="s">
-        <v>717</v>
-      </c>
-      <c r="E87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88">
-        <v>80</v>
-      </c>
-      <c r="C88">
-        <v>35</v>
-      </c>
-      <c r="D88" t="s">
-        <v>718</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89">
-        <v>80</v>
-      </c>
-      <c r="C89">
-        <v>35</v>
-      </c>
-      <c r="D89" t="s">
-        <v>719</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90">
-        <v>80</v>
-      </c>
-      <c r="C90">
-        <v>35</v>
-      </c>
-      <c r="D90" t="s">
-        <v>543</v>
-      </c>
-      <c r="E90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91">
-        <v>80</v>
-      </c>
-      <c r="C91">
-        <v>35</v>
-      </c>
-      <c r="D91" t="s">
-        <v>720</v>
-      </c>
-      <c r="E91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92">
-        <v>80</v>
-      </c>
-      <c r="C92">
-        <v>35</v>
-      </c>
-      <c r="D92" t="s">
-        <v>721</v>
-      </c>
-      <c r="E92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93">
-        <v>80</v>
-      </c>
-      <c r="C93">
-        <v>35</v>
-      </c>
-      <c r="D93" t="s">
-        <v>722</v>
-      </c>
-      <c r="E93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>1</v>
-      </c>
-      <c r="B94">
-        <v>80</v>
-      </c>
-      <c r="C94">
-        <v>35</v>
-      </c>
-      <c r="D94" t="s">
-        <v>723</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95">
-        <v>80</v>
-      </c>
-      <c r="C95">
-        <v>35</v>
-      </c>
-      <c r="D95" t="s">
-        <v>724</v>
-      </c>
-      <c r="E95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>1</v>
-      </c>
-      <c r="B96">
-        <v>80</v>
-      </c>
-      <c r="C96">
-        <v>35</v>
-      </c>
-      <c r="D96" t="s">
-        <v>725</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>80</v>
+      </c>
+      <c r="C12" s="5">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D96 D102:D1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  <conditionalFormatting sqref="D1:D5">
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E96 E102:E110 E580:E1048576">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+  <conditionalFormatting sqref="D6:D9">
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D12">
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E12">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E96 E102:E110 E580:E1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E12" xr:uid="{D62A551D-5573-4B30-9322-DDC61D0C97DD}">
       <formula1>$H$1:$J$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>